--- a/data/pca/factorExposure/factorExposure_2015-08-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02425922157937707</v>
+        <v>-0.01653720648313008</v>
       </c>
       <c r="C2">
-        <v>-0.03594521338564838</v>
+        <v>0.05006426719744764</v>
       </c>
       <c r="D2">
-        <v>-0.1320991196908546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1401877978085581</v>
+      </c>
+      <c r="E2">
+        <v>-0.002669079941641903</v>
+      </c>
+      <c r="F2">
+        <v>0.003312876070457576</v>
+      </c>
+      <c r="G2">
+        <v>-0.110162268288193</v>
+      </c>
+      <c r="H2">
+        <v>0.004847739672687467</v>
+      </c>
+      <c r="I2">
+        <v>0.08374924987853517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.01427785561500327</v>
+        <v>0.01688024307248345</v>
       </c>
       <c r="C3">
-        <v>-0.05408374136181981</v>
+        <v>0.03605308415940731</v>
       </c>
       <c r="D3">
-        <v>-0.07101725636724515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04837649770008604</v>
+      </c>
+      <c r="E3">
+        <v>-0.04783346382498466</v>
+      </c>
+      <c r="F3">
+        <v>-0.01763255668700613</v>
+      </c>
+      <c r="G3">
+        <v>-0.1283898793303413</v>
+      </c>
+      <c r="H3">
+        <v>0.009898305138545449</v>
+      </c>
+      <c r="I3">
+        <v>-0.04574447633220419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0371491778226794</v>
+        <v>-0.02722228120812589</v>
       </c>
       <c r="C4">
-        <v>-0.0723792209191903</v>
+        <v>0.08928585606856845</v>
       </c>
       <c r="D4">
-        <v>-0.1406388120307153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1524476062803014</v>
+      </c>
+      <c r="E4">
+        <v>-0.02143351128488774</v>
+      </c>
+      <c r="F4">
+        <v>-0.08058863582521034</v>
+      </c>
+      <c r="G4">
+        <v>0.008206388837912458</v>
+      </c>
+      <c r="H4">
+        <v>0.03750653260199226</v>
+      </c>
+      <c r="I4">
+        <v>-0.006453101439272331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02501453803079548</v>
+        <v>-0.02363891134746553</v>
       </c>
       <c r="C6">
-        <v>-0.02429241410964906</v>
+        <v>0.03602664697442019</v>
       </c>
       <c r="D6">
-        <v>-0.1606428698544604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1399073023649585</v>
+      </c>
+      <c r="E6">
+        <v>0.0283618963739301</v>
+      </c>
+      <c r="F6">
+        <v>-0.05878395217907127</v>
+      </c>
+      <c r="G6">
+        <v>-0.05631222879191602</v>
+      </c>
+      <c r="H6">
+        <v>0.009705825271369225</v>
+      </c>
+      <c r="I6">
+        <v>-0.01980961216902319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0128810240344269</v>
+        <v>-0.007665591850622221</v>
       </c>
       <c r="C7">
-        <v>-0.03258032566735355</v>
+        <v>0.03975744659677825</v>
       </c>
       <c r="D7">
-        <v>-0.1206077408191938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09888151811867631</v>
+      </c>
+      <c r="E7">
+        <v>0.03801095902896798</v>
+      </c>
+      <c r="F7">
+        <v>-0.01424445984822309</v>
+      </c>
+      <c r="G7">
+        <v>-0.05908690813763832</v>
+      </c>
+      <c r="H7">
+        <v>0.04018047946725685</v>
+      </c>
+      <c r="I7">
+        <v>-0.04699793560554305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004427659462088799</v>
+        <v>0.002884745290258624</v>
       </c>
       <c r="C8">
-        <v>-0.03564360212086172</v>
+        <v>0.04018237686673575</v>
       </c>
       <c r="D8">
-        <v>-0.08274097393730642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08054361168513553</v>
+      </c>
+      <c r="E8">
+        <v>0.01123894822163886</v>
+      </c>
+      <c r="F8">
+        <v>-0.04936711435175997</v>
+      </c>
+      <c r="G8">
+        <v>-0.07726627539168279</v>
+      </c>
+      <c r="H8">
+        <v>-0.03947249113836661</v>
+      </c>
+      <c r="I8">
+        <v>-0.01385299535082931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03044590067706998</v>
+        <v>-0.0204715018708869</v>
       </c>
       <c r="C9">
-        <v>-0.06585070556632369</v>
+        <v>0.07849814001246656</v>
       </c>
       <c r="D9">
-        <v>-0.1297821282148454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1264254138900906</v>
+      </c>
+      <c r="E9">
+        <v>-0.01066577741029698</v>
+      </c>
+      <c r="F9">
+        <v>-0.04708481489578981</v>
+      </c>
+      <c r="G9">
+        <v>0.008409953295865861</v>
+      </c>
+      <c r="H9">
+        <v>0.03816885718975185</v>
+      </c>
+      <c r="I9">
+        <v>-0.005899248632856371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1574946216778016</v>
+        <v>-0.2091788275899653</v>
       </c>
       <c r="C10">
-        <v>0.167134292792466</v>
+        <v>-0.1316741342209283</v>
       </c>
       <c r="D10">
-        <v>-0.01050210495232902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0130287723366803</v>
+      </c>
+      <c r="E10">
+        <v>-0.02803664302697178</v>
+      </c>
+      <c r="F10">
+        <v>-0.04926401041982346</v>
+      </c>
+      <c r="G10">
+        <v>0.01937277837786053</v>
+      </c>
+      <c r="H10">
+        <v>-0.05724357484686334</v>
+      </c>
+      <c r="I10">
+        <v>-0.07987781333841355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02546578354133175</v>
+        <v>-0.01649513432086722</v>
       </c>
       <c r="C11">
-        <v>-0.04580760729434667</v>
+        <v>0.05432835183888909</v>
       </c>
       <c r="D11">
-        <v>-0.05642936172240903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04947420131191568</v>
+      </c>
+      <c r="E11">
+        <v>0.02110138682025835</v>
+      </c>
+      <c r="F11">
+        <v>0.01477888835649995</v>
+      </c>
+      <c r="G11">
+        <v>-0.02525020717399697</v>
+      </c>
+      <c r="H11">
+        <v>0.03589300006490505</v>
+      </c>
+      <c r="I11">
+        <v>-0.0005033317968261368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02574065455144832</v>
+        <v>-0.01585429427932611</v>
       </c>
       <c r="C12">
-        <v>-0.04679775025216509</v>
+        <v>0.05304139268351502</v>
       </c>
       <c r="D12">
-        <v>-0.0707957579235238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05327703732424644</v>
+      </c>
+      <c r="E12">
+        <v>0.01423107753939669</v>
+      </c>
+      <c r="F12">
+        <v>0.01475631239893432</v>
+      </c>
+      <c r="G12">
+        <v>-0.03276198282446267</v>
+      </c>
+      <c r="H12">
+        <v>0.0653661499845285</v>
+      </c>
+      <c r="I12">
+        <v>-0.01831509285173721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.003240280775243264</v>
+        <v>-0.003490838367657063</v>
       </c>
       <c r="C13">
-        <v>-0.03747011656005566</v>
+        <v>0.04859275674912407</v>
       </c>
       <c r="D13">
-        <v>-0.1618872904497846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1634715126191875</v>
+      </c>
+      <c r="E13">
+        <v>0.03534741391170695</v>
+      </c>
+      <c r="F13">
+        <v>-0.04545002824294379</v>
+      </c>
+      <c r="G13">
+        <v>-0.06843514376882534</v>
+      </c>
+      <c r="H13">
+        <v>0.02841849495229903</v>
+      </c>
+      <c r="I13">
+        <v>-0.06165396480421847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-2.9925012508395e-05</v>
+        <v>-0.000542882040077985</v>
       </c>
       <c r="C14">
-        <v>-0.02687910209899727</v>
+        <v>0.03101021263968106</v>
       </c>
       <c r="D14">
-        <v>-0.1131201364706199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1069091241275773</v>
+      </c>
+      <c r="E14">
+        <v>0.01793855643942249</v>
+      </c>
+      <c r="F14">
+        <v>-0.01575542574527707</v>
+      </c>
+      <c r="G14">
+        <v>-0.07953760237227812</v>
+      </c>
+      <c r="H14">
+        <v>0.06855918044468982</v>
+      </c>
+      <c r="I14">
+        <v>0.002680611442493327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.003793531296210255</v>
+        <v>0.0005306952287302175</v>
       </c>
       <c r="C15">
-        <v>-0.005580589704162836</v>
+        <v>0.01623988242017756</v>
       </c>
       <c r="D15">
-        <v>-0.01292876755193995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0429079804927343</v>
+      </c>
+      <c r="E15">
+        <v>0.003702460771891986</v>
+      </c>
+      <c r="F15">
+        <v>-0.0007190436734652703</v>
+      </c>
+      <c r="G15">
+        <v>-0.01761314026909898</v>
+      </c>
+      <c r="H15">
+        <v>0.0005844447768912173</v>
+      </c>
+      <c r="I15">
+        <v>0.02278122779558064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02422940880456564</v>
+        <v>-0.01610581411148104</v>
       </c>
       <c r="C16">
-        <v>-0.04876593419831712</v>
+        <v>0.05458521714874763</v>
       </c>
       <c r="D16">
-        <v>-0.07483635034907021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05801530099215112</v>
+      </c>
+      <c r="E16">
+        <v>0.01645663504668347</v>
+      </c>
+      <c r="F16">
+        <v>0.005438896555258458</v>
+      </c>
+      <c r="G16">
+        <v>-0.03499223204730167</v>
+      </c>
+      <c r="H16">
+        <v>0.05565381536938838</v>
+      </c>
+      <c r="I16">
+        <v>-0.01313686120134686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.004830907988595028</v>
+        <v>-0.0002825122024995546</v>
       </c>
       <c r="C19">
-        <v>-0.03259736043995762</v>
+        <v>0.02751129563687303</v>
       </c>
       <c r="D19">
-        <v>-0.1662872815283958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1131746776869827</v>
+      </c>
+      <c r="E19">
+        <v>-0.02442830127236057</v>
+      </c>
+      <c r="F19">
+        <v>-0.01016451748683838</v>
+      </c>
+      <c r="G19">
+        <v>-0.05650587393653591</v>
+      </c>
+      <c r="H19">
+        <v>0.05648762960757066</v>
+      </c>
+      <c r="I19">
+        <v>-0.03174971264138784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.007759690098215383</v>
+        <v>-0.006299452175423891</v>
       </c>
       <c r="C20">
-        <v>-0.03625290709873197</v>
+        <v>0.04208543328902144</v>
       </c>
       <c r="D20">
-        <v>-0.1074516244608757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1071488068146563</v>
+      </c>
+      <c r="E20">
+        <v>-0.006296573724326969</v>
+      </c>
+      <c r="F20">
+        <v>-0.03016151548454538</v>
+      </c>
+      <c r="G20">
+        <v>-0.05305700483980954</v>
+      </c>
+      <c r="H20">
+        <v>0.04518655045153373</v>
+      </c>
+      <c r="I20">
+        <v>-0.02138371340676564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.007011245567617423</v>
+        <v>-0.002055515017399821</v>
       </c>
       <c r="C21">
-        <v>-0.04352973863322355</v>
+        <v>0.04938107536763138</v>
       </c>
       <c r="D21">
-        <v>-0.1876978508952745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1591459155520969</v>
+      </c>
+      <c r="E21">
+        <v>-0.0200928267462427</v>
+      </c>
+      <c r="F21">
+        <v>-0.0630092557404815</v>
+      </c>
+      <c r="G21">
+        <v>-0.09563938405040354</v>
+      </c>
+      <c r="H21">
+        <v>0.1022334908396677</v>
+      </c>
+      <c r="I21">
+        <v>-0.05895592005643752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001695970470412705</v>
+        <v>0.002731757090422026</v>
       </c>
       <c r="C22">
-        <v>-0.05214299992965866</v>
+        <v>0.06307805382908167</v>
       </c>
       <c r="D22">
-        <v>-0.1561171082118119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2145136238969138</v>
+      </c>
+      <c r="E22">
+        <v>0.05255819183022877</v>
+      </c>
+      <c r="F22">
+        <v>-0.0238485219498117</v>
+      </c>
+      <c r="G22">
+        <v>0.01185024135243326</v>
+      </c>
+      <c r="H22">
+        <v>-0.4827840553650526</v>
+      </c>
+      <c r="I22">
+        <v>0.2500318491604393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001527225242831315</v>
+        <v>0.002217067381218958</v>
       </c>
       <c r="C23">
-        <v>-0.05252788439324291</v>
+        <v>0.06358593184774332</v>
       </c>
       <c r="D23">
-        <v>-0.1556664011880405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2147965779495272</v>
+      </c>
+      <c r="E23">
+        <v>0.05012898887887645</v>
+      </c>
+      <c r="F23">
+        <v>-0.0226240765131214</v>
+      </c>
+      <c r="G23">
+        <v>0.01350076417542705</v>
+      </c>
+      <c r="H23">
+        <v>-0.4826802731917005</v>
+      </c>
+      <c r="I23">
+        <v>0.2510666336552021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0288457278133363</v>
+        <v>-0.01622547313124365</v>
       </c>
       <c r="C24">
-        <v>-0.06318157112163729</v>
+        <v>0.06746143709584074</v>
       </c>
       <c r="D24">
-        <v>-0.07430125682237766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05738628103792315</v>
+      </c>
+      <c r="E24">
+        <v>0.01750836274169302</v>
+      </c>
+      <c r="F24">
+        <v>0.003640615744225964</v>
+      </c>
+      <c r="G24">
+        <v>-0.04199344653696117</v>
+      </c>
+      <c r="H24">
+        <v>0.06326923868857925</v>
+      </c>
+      <c r="I24">
+        <v>-0.00745918734292541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03330766502761454</v>
+        <v>-0.02112902014832791</v>
       </c>
       <c r="C25">
-        <v>-0.05503687877635254</v>
+        <v>0.06358789113000592</v>
       </c>
       <c r="D25">
-        <v>-0.07383396402566846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0604392938818894</v>
+      </c>
+      <c r="E25">
+        <v>0.007156986858921001</v>
+      </c>
+      <c r="F25">
+        <v>0.007789234973022353</v>
+      </c>
+      <c r="G25">
+        <v>-0.0232885757381306</v>
+      </c>
+      <c r="H25">
+        <v>0.04152744768438896</v>
+      </c>
+      <c r="I25">
+        <v>-0.0141710991052196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008581308027138869</v>
+        <v>-0.006760759829843209</v>
       </c>
       <c r="C26">
-        <v>-0.0150644563114794</v>
+        <v>0.02393566744679032</v>
       </c>
       <c r="D26">
-        <v>-0.07928708668817321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07163379526915518</v>
+      </c>
+      <c r="E26">
+        <v>0.01187000180587526</v>
+      </c>
+      <c r="F26">
+        <v>-0.02424202934785569</v>
+      </c>
+      <c r="G26">
+        <v>-0.04843263144040083</v>
+      </c>
+      <c r="H26">
+        <v>0.05080114577390939</v>
+      </c>
+      <c r="I26">
+        <v>-0.01999549860981914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2339933034462592</v>
+        <v>-0.2970174602919882</v>
       </c>
       <c r="C28">
-        <v>0.2155155830681718</v>
+        <v>-0.158681622547885</v>
       </c>
       <c r="D28">
-        <v>-0.01424745825131342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.003744977205022191</v>
+      </c>
+      <c r="E28">
+        <v>-0.04831541558888994</v>
+      </c>
+      <c r="F28">
+        <v>-0.04421837751703268</v>
+      </c>
+      <c r="G28">
+        <v>0.03964580194050142</v>
+      </c>
+      <c r="H28">
+        <v>-0.02929103835751997</v>
+      </c>
+      <c r="I28">
+        <v>-0.07203604475582774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0007701620943904748</v>
+        <v>-0.0003628621703234197</v>
       </c>
       <c r="C29">
-        <v>-0.02475122664335469</v>
+        <v>0.02983215618636787</v>
       </c>
       <c r="D29">
-        <v>-0.1060308705044801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1055804493281229</v>
+      </c>
+      <c r="E29">
+        <v>0.03155197418149423</v>
+      </c>
+      <c r="F29">
+        <v>-0.02864656896809351</v>
+      </c>
+      <c r="G29">
+        <v>-0.06776810356713117</v>
+      </c>
+      <c r="H29">
+        <v>0.0702073718738784</v>
+      </c>
+      <c r="I29">
+        <v>-0.01291026767062571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01961605800614086</v>
+        <v>-0.016375001368202</v>
       </c>
       <c r="C30">
-        <v>-0.06685645913133346</v>
+        <v>0.08159894990544977</v>
       </c>
       <c r="D30">
-        <v>-0.1702383851003356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1668779639663084</v>
+      </c>
+      <c r="E30">
+        <v>0.03408147005905544</v>
+      </c>
+      <c r="F30">
+        <v>-0.03628839151075222</v>
+      </c>
+      <c r="G30">
+        <v>-0.04318765286383616</v>
+      </c>
+      <c r="H30">
+        <v>0.01965875202531004</v>
+      </c>
+      <c r="I30">
+        <v>0.04036196727212453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04191103045244086</v>
+        <v>-0.02220060241320509</v>
       </c>
       <c r="C31">
-        <v>-0.08177677840110713</v>
+        <v>0.08753651260736635</v>
       </c>
       <c r="D31">
-        <v>-0.07225915863694728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04757937621795989</v>
+      </c>
+      <c r="E31">
+        <v>0.005701690066938062</v>
+      </c>
+      <c r="F31">
+        <v>-0.02180555540947425</v>
+      </c>
+      <c r="G31">
+        <v>-0.02240235480208247</v>
+      </c>
+      <c r="H31">
+        <v>0.0157087569267073</v>
+      </c>
+      <c r="I31">
+        <v>-0.05622087250598177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0310834574529914</v>
+        <v>-0.02350641299214087</v>
       </c>
       <c r="C32">
-        <v>-0.03802272242492673</v>
+        <v>0.04599190138871245</v>
       </c>
       <c r="D32">
-        <v>-0.1231346016784184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1253415850163104</v>
+      </c>
+      <c r="E32">
+        <v>0.0005163870581393359</v>
+      </c>
+      <c r="F32">
+        <v>-0.0380056369833954</v>
+      </c>
+      <c r="G32">
+        <v>-0.04316695730971939</v>
+      </c>
+      <c r="H32">
+        <v>0.01500108636979619</v>
+      </c>
+      <c r="I32">
+        <v>-0.03253638477773453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01744743202594583</v>
+        <v>-0.01339662239951543</v>
       </c>
       <c r="C33">
-        <v>-0.04837924980670713</v>
+        <v>0.05768695891860912</v>
       </c>
       <c r="D33">
-        <v>-0.162551227726053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1401391721720585</v>
+      </c>
+      <c r="E33">
+        <v>0.008930222248203914</v>
+      </c>
+      <c r="F33">
+        <v>-0.02434716685151112</v>
+      </c>
+      <c r="G33">
+        <v>-0.04054289641603116</v>
+      </c>
+      <c r="H33">
+        <v>0.04284711951572139</v>
+      </c>
+      <c r="I33">
+        <v>-0.01518379366541331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02704559135591747</v>
+        <v>-0.01405640822199462</v>
       </c>
       <c r="C34">
-        <v>-0.06709979823800939</v>
+        <v>0.06890356043596306</v>
       </c>
       <c r="D34">
-        <v>-0.06542429552261572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04439186252161213</v>
+      </c>
+      <c r="E34">
+        <v>0.02714975454992586</v>
+      </c>
+      <c r="F34">
+        <v>0.03063487164405883</v>
+      </c>
+      <c r="G34">
+        <v>-0.04099291355810662</v>
+      </c>
+      <c r="H34">
+        <v>0.05222827553923818</v>
+      </c>
+      <c r="I34">
+        <v>-0.03674198493024463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001224540341468676</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003110321767240446</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0124048660742373</v>
+      </c>
+      <c r="E35">
+        <v>0.002349652378117556</v>
+      </c>
+      <c r="F35">
+        <v>0.001961730859182305</v>
+      </c>
+      <c r="G35">
+        <v>-0.0008684785829039147</v>
+      </c>
+      <c r="H35">
+        <v>0.004581273548714673</v>
+      </c>
+      <c r="I35">
+        <v>0.003189592801260228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01436510978593625</v>
+        <v>-0.01359194107132231</v>
       </c>
       <c r="C36">
-        <v>-0.007524023195776463</v>
+        <v>0.01944842455162261</v>
       </c>
       <c r="D36">
-        <v>-0.1006138547619499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08684758034124666</v>
+      </c>
+      <c r="E36">
+        <v>0.002796831206227076</v>
+      </c>
+      <c r="F36">
+        <v>-0.02894175717479045</v>
+      </c>
+      <c r="G36">
+        <v>-0.03432600400283206</v>
+      </c>
+      <c r="H36">
+        <v>0.04723764779433844</v>
+      </c>
+      <c r="I36">
+        <v>-0.00225142148890647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.0131284913623284</v>
+        <v>-0.01835282722899899</v>
       </c>
       <c r="C38">
-        <v>-0.01615527854039318</v>
+        <v>0.02287222261416986</v>
       </c>
       <c r="D38">
-        <v>-0.09037184545004824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0862552482426774</v>
+      </c>
+      <c r="E38">
+        <v>-0.01562805964595299</v>
+      </c>
+      <c r="F38">
+        <v>0.01959109917814826</v>
+      </c>
+      <c r="G38">
+        <v>-0.03990884304099</v>
+      </c>
+      <c r="H38">
+        <v>0.03168970381266413</v>
+      </c>
+      <c r="I38">
+        <v>0.007673989135060034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02976574104139398</v>
+        <v>-0.01720025136574795</v>
       </c>
       <c r="C39">
-        <v>-0.06384519580288711</v>
+        <v>0.07938346238309558</v>
       </c>
       <c r="D39">
-        <v>-0.1143660233290621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1072603732453524</v>
+      </c>
+      <c r="E39">
+        <v>0.04229925499184122</v>
+      </c>
+      <c r="F39">
+        <v>0.01328892885683458</v>
+      </c>
+      <c r="G39">
+        <v>-0.04850840927211718</v>
+      </c>
+      <c r="H39">
+        <v>0.08252603594200229</v>
+      </c>
+      <c r="I39">
+        <v>0.03326971689974598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01298677619666522</v>
+        <v>-0.0063410863606965</v>
       </c>
       <c r="C40">
-        <v>-0.04869044689216779</v>
+        <v>0.045744567706072</v>
       </c>
       <c r="D40">
-        <v>-0.1259544351764387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.10468070880731</v>
+      </c>
+      <c r="E40">
+        <v>0.01041094684270947</v>
+      </c>
+      <c r="F40">
+        <v>-0.03122353155944117</v>
+      </c>
+      <c r="G40">
+        <v>-0.2318867477010651</v>
+      </c>
+      <c r="H40">
+        <v>-0.06221689528231202</v>
+      </c>
+      <c r="I40">
+        <v>-0.07137951541717182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.02378818035135842</v>
+        <v>-0.02142165374186726</v>
       </c>
       <c r="C41">
-        <v>-0.007843020551576893</v>
+        <v>0.01649101671844541</v>
       </c>
       <c r="D41">
-        <v>-0.08876044043352589</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.06074101075015934</v>
+      </c>
+      <c r="E41">
+        <v>-0.02081589954966506</v>
+      </c>
+      <c r="F41">
+        <v>-0.0149120797969568</v>
+      </c>
+      <c r="G41">
+        <v>-0.04238880572993843</v>
+      </c>
+      <c r="H41">
+        <v>0.02136852293927286</v>
+      </c>
+      <c r="I41">
+        <v>-0.04304197089321753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01874921074094376</v>
+        <v>-0.01487381721302508</v>
       </c>
       <c r="C43">
-        <v>-0.01632613597117087</v>
+        <v>0.0220028836328987</v>
       </c>
       <c r="D43">
-        <v>-0.10960045467946</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07755452602172427</v>
+      </c>
+      <c r="E43">
+        <v>-0.007679976341817133</v>
+      </c>
+      <c r="F43">
+        <v>-0.01143917926916658</v>
+      </c>
+      <c r="G43">
+        <v>-0.05735171032404185</v>
+      </c>
+      <c r="H43">
+        <v>0.04679290925220028</v>
+      </c>
+      <c r="I43">
+        <v>-0.04613584547281967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.00341078361239261</v>
+        <v>-0.004893092598671958</v>
       </c>
       <c r="C44">
-        <v>-0.04372872061281589</v>
+        <v>0.04631246068994552</v>
       </c>
       <c r="D44">
-        <v>-0.1083963290992953</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1161029618858242</v>
+      </c>
+      <c r="E44">
+        <v>-9.860086985835863e-05</v>
+      </c>
+      <c r="F44">
+        <v>-0.02229871886462368</v>
+      </c>
+      <c r="G44">
+        <v>-0.04573124007192801</v>
+      </c>
+      <c r="H44">
+        <v>0.03550066204498543</v>
+      </c>
+      <c r="I44">
+        <v>0.03930281880268559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.01130013485127974</v>
+        <v>-0.005038007295993331</v>
       </c>
       <c r="C46">
-        <v>-0.03001891479675544</v>
+        <v>0.03693757899190464</v>
       </c>
       <c r="D46">
-        <v>-0.1129351944461871</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09738854486129062</v>
+      </c>
+      <c r="E46">
+        <v>0.01720322966151237</v>
+      </c>
+      <c r="F46">
+        <v>-0.01974171226480055</v>
+      </c>
+      <c r="G46">
+        <v>-0.06570835824831428</v>
+      </c>
+      <c r="H46">
+        <v>0.08233123993015544</v>
+      </c>
+      <c r="I46">
+        <v>-0.02123700744510607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08020896779457815</v>
+        <v>-0.05082685374162974</v>
       </c>
       <c r="C47">
-        <v>-0.1007043364346175</v>
+        <v>0.1150226961587459</v>
       </c>
       <c r="D47">
-        <v>-0.05464594047587973</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03145833976819272</v>
+      </c>
+      <c r="E47">
+        <v>-0.01170242392987701</v>
+      </c>
+      <c r="F47">
+        <v>-0.002177368758476011</v>
+      </c>
+      <c r="G47">
+        <v>0.02604335176559642</v>
+      </c>
+      <c r="H47">
+        <v>0.02602808989540274</v>
+      </c>
+      <c r="I47">
+        <v>-0.1142724261115227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007800746149143656</v>
+        <v>-0.007337648388845344</v>
       </c>
       <c r="C48">
-        <v>-0.02037690559241084</v>
+        <v>0.02749496232909534</v>
       </c>
       <c r="D48">
-        <v>-0.1013417660068678</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.09091442456889559</v>
+      </c>
+      <c r="E48">
+        <v>-0.01651083465304068</v>
+      </c>
+      <c r="F48">
+        <v>-0.0350298541069806</v>
+      </c>
+      <c r="G48">
+        <v>-0.05261944367467472</v>
+      </c>
+      <c r="H48">
+        <v>0.05716603091955721</v>
+      </c>
+      <c r="I48">
+        <v>-0.00934688634099157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03988906972944722</v>
+        <v>-0.02298728640981886</v>
       </c>
       <c r="C50">
-        <v>-0.06558282864275464</v>
+        <v>0.07454420334277817</v>
       </c>
       <c r="D50">
-        <v>-0.07854752456699278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05993580752720318</v>
+      </c>
+      <c r="E50">
+        <v>-0.000101857823255834</v>
+      </c>
+      <c r="F50">
+        <v>-0.01212420585796175</v>
+      </c>
+      <c r="G50">
+        <v>-0.03187172985285247</v>
+      </c>
+      <c r="H50">
+        <v>-0.004674460509575208</v>
+      </c>
+      <c r="I50">
+        <v>-0.09051455284154285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00841055788841481</v>
+        <v>-0.005845026800681669</v>
       </c>
       <c r="C51">
-        <v>-0.01622877710258683</v>
+        <v>0.02337390501804511</v>
       </c>
       <c r="D51">
-        <v>-0.07861215850362724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08101278680599285</v>
+      </c>
+      <c r="E51">
+        <v>0.02842242292421018</v>
+      </c>
+      <c r="F51">
+        <v>-0.03266634897110449</v>
+      </c>
+      <c r="G51">
+        <v>-0.07075782214167306</v>
+      </c>
+      <c r="H51">
+        <v>0.03052648685685395</v>
+      </c>
+      <c r="I51">
+        <v>0.008627362395491386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09494226027484412</v>
+        <v>-0.06784875888852729</v>
       </c>
       <c r="C53">
-        <v>-0.1265756794469509</v>
+        <v>0.1463943800229741</v>
       </c>
       <c r="D53">
-        <v>-0.0196365240737591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00519324426714538</v>
+      </c>
+      <c r="E53">
+        <v>-0.05104375658400549</v>
+      </c>
+      <c r="F53">
+        <v>-0.07220318432892608</v>
+      </c>
+      <c r="G53">
+        <v>-0.02161358817511097</v>
+      </c>
+      <c r="H53">
+        <v>-0.01848250286869928</v>
+      </c>
+      <c r="I53">
+        <v>-0.08467053087506839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01425416659733741</v>
+        <v>-0.0105391700162132</v>
       </c>
       <c r="C54">
-        <v>-0.02986562513023846</v>
+        <v>0.03877311746367801</v>
       </c>
       <c r="D54">
-        <v>-0.1244890908459937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.1005548177005201</v>
+      </c>
+      <c r="E54">
+        <v>0.004626500657394095</v>
+      </c>
+      <c r="F54">
+        <v>-0.004303473548910688</v>
+      </c>
+      <c r="G54">
+        <v>-0.07806361915918476</v>
+      </c>
+      <c r="H54">
+        <v>0.04330844238052551</v>
+      </c>
+      <c r="I54">
+        <v>-0.05681704272796363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.08760424518641249</v>
+        <v>-0.06011267363665951</v>
       </c>
       <c r="C55">
-        <v>-0.09933049044241188</v>
+        <v>0.1171982883761692</v>
       </c>
       <c r="D55">
-        <v>-0.001473194134203488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01141007364798885</v>
+      </c>
+      <c r="E55">
+        <v>-0.008190480185361547</v>
+      </c>
+      <c r="F55">
+        <v>-0.03836306823288993</v>
+      </c>
+      <c r="G55">
+        <v>-0.02016492759541134</v>
+      </c>
+      <c r="H55">
+        <v>-0.03806757864323385</v>
+      </c>
+      <c r="I55">
+        <v>-0.07420131366785465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1190682316686822</v>
+        <v>-0.08150790202373449</v>
       </c>
       <c r="C56">
-        <v>-0.1330355204339528</v>
+        <v>0.1667107350992493</v>
       </c>
       <c r="D56">
-        <v>0.0035065970343069</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01504284339260799</v>
+      </c>
+      <c r="E56">
+        <v>-0.04004513492372853</v>
+      </c>
+      <c r="F56">
+        <v>-0.03648612837719595</v>
+      </c>
+      <c r="G56">
+        <v>-0.0240967016716993</v>
+      </c>
+      <c r="H56">
+        <v>-0.0602083315896819</v>
+      </c>
+      <c r="I56">
+        <v>-0.07860712553268043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.0216834677741804</v>
+        <v>0.01042518439283513</v>
       </c>
       <c r="C58">
-        <v>-0.03281222563742051</v>
+        <v>0.04899380080023825</v>
       </c>
       <c r="D58">
-        <v>-0.2216440734162745</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2835306278159728</v>
+      </c>
+      <c r="E58">
+        <v>-0.0384258024997392</v>
+      </c>
+      <c r="F58">
+        <v>-0.09005135876501524</v>
+      </c>
+      <c r="G58">
+        <v>-0.023533450426523</v>
+      </c>
+      <c r="H58">
+        <v>-0.1656805678305999</v>
+      </c>
+      <c r="I58">
+        <v>0.06158335441827516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1726013846477155</v>
+        <v>-0.2242342465105071</v>
       </c>
       <c r="C59">
-        <v>0.1466280754383022</v>
+        <v>-0.1026223258699281</v>
       </c>
       <c r="D59">
-        <v>-0.0569606954509257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06566135381313069</v>
+      </c>
+      <c r="E59">
+        <v>-0.03630036989250383</v>
+      </c>
+      <c r="F59">
+        <v>-0.006342769403636998</v>
+      </c>
+      <c r="G59">
+        <v>0.009519462397015822</v>
+      </c>
+      <c r="H59">
+        <v>-0.01528383195919268</v>
+      </c>
+      <c r="I59">
+        <v>0.009656422761112322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2044682639246068</v>
+        <v>-0.171759343796639</v>
       </c>
       <c r="C60">
-        <v>-0.09408932369959763</v>
+        <v>0.1487540246695451</v>
       </c>
       <c r="D60">
-        <v>-0.1025749200032492</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06429662426848537</v>
+      </c>
+      <c r="E60">
+        <v>0.2803045552364545</v>
+      </c>
+      <c r="F60">
+        <v>0.1563864628621319</v>
+      </c>
+      <c r="G60">
+        <v>0.2831440974346462</v>
+      </c>
+      <c r="H60">
+        <v>-0.0358852692010772</v>
+      </c>
+      <c r="I60">
+        <v>0.03269175958821609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03473268629571781</v>
+        <v>-0.02112730264369227</v>
       </c>
       <c r="C61">
-        <v>-0.06185179780595728</v>
+        <v>0.0740468133671728</v>
       </c>
       <c r="D61">
-        <v>-0.1143269990864392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08971360539837184</v>
+      </c>
+      <c r="E61">
+        <v>0.03020715662331768</v>
+      </c>
+      <c r="F61">
+        <v>0.01506816740853628</v>
+      </c>
+      <c r="G61">
+        <v>-0.03290101496038378</v>
+      </c>
+      <c r="H61">
+        <v>0.08244831114339547</v>
+      </c>
+      <c r="I61">
+        <v>-0.02733838440504133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01046341501059399</v>
+        <v>-0.006890608857289491</v>
       </c>
       <c r="C63">
-        <v>-0.02763927280339264</v>
+        <v>0.03629481146471536</v>
       </c>
       <c r="D63">
-        <v>-0.09593426226269448</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07839557392155846</v>
+      </c>
+      <c r="E63">
+        <v>0.02206298045616786</v>
+      </c>
+      <c r="F63">
+        <v>-0.0192981026264483</v>
+      </c>
+      <c r="G63">
+        <v>-0.03854551901468485</v>
+      </c>
+      <c r="H63">
+        <v>0.03989468227396274</v>
+      </c>
+      <c r="I63">
+        <v>-0.01653082949327605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.0491936542687051</v>
+        <v>-0.02727394196960149</v>
       </c>
       <c r="C64">
-        <v>-0.08425486477208857</v>
+        <v>0.09452508769901204</v>
       </c>
       <c r="D64">
-        <v>-0.06091735419044909</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05079212368828272</v>
+      </c>
+      <c r="E64">
+        <v>0.01948534106284102</v>
+      </c>
+      <c r="F64">
+        <v>-0.0404829367701359</v>
+      </c>
+      <c r="G64">
+        <v>-0.007051056242690851</v>
+      </c>
+      <c r="H64">
+        <v>0.1136095903637208</v>
+      </c>
+      <c r="I64">
+        <v>-0.04453767233608014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02404171076833266</v>
+        <v>-0.01791384780721776</v>
       </c>
       <c r="C65">
-        <v>-0.02338224757419752</v>
+        <v>0.03939128828384371</v>
       </c>
       <c r="D65">
-        <v>-0.1238996100756768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1108505212430064</v>
+      </c>
+      <c r="E65">
+        <v>0.03652020271444358</v>
+      </c>
+      <c r="F65">
+        <v>-0.01606314597998517</v>
+      </c>
+      <c r="G65">
+        <v>-0.01701479098924716</v>
+      </c>
+      <c r="H65">
+        <v>0.005541146515870057</v>
+      </c>
+      <c r="I65">
+        <v>-0.016681320691622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0285135357844875</v>
+        <v>-0.01547050414854504</v>
       </c>
       <c r="C66">
-        <v>-0.07081083441836847</v>
+        <v>0.08993210522474591</v>
       </c>
       <c r="D66">
-        <v>-0.1258601590264427</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1334443561360516</v>
+      </c>
+      <c r="E66">
+        <v>0.03579377247955787</v>
+      </c>
+      <c r="F66">
+        <v>0.0190800128872216</v>
+      </c>
+      <c r="G66">
+        <v>-0.02633681855963272</v>
+      </c>
+      <c r="H66">
+        <v>0.04688860685853798</v>
+      </c>
+      <c r="I66">
+        <v>0.03079524793628827</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03437674981392118</v>
+        <v>-0.03220053630297138</v>
       </c>
       <c r="C67">
-        <v>-0.02569058582245388</v>
+        <v>0.03461215606721534</v>
       </c>
       <c r="D67">
-        <v>-0.04602993697399926</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03619535820137142</v>
+      </c>
+      <c r="E67">
+        <v>-0.001208017866032066</v>
+      </c>
+      <c r="F67">
+        <v>0.03538359038480995</v>
+      </c>
+      <c r="G67">
+        <v>-0.0403665511108235</v>
+      </c>
+      <c r="H67">
+        <v>0.04496912013716479</v>
+      </c>
+      <c r="I67">
+        <v>0.002598321616726817</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2130856452423163</v>
+        <v>-0.2575035720678419</v>
       </c>
       <c r="C68">
-        <v>0.1690188852302319</v>
+        <v>-0.1112500442470663</v>
       </c>
       <c r="D68">
-        <v>-0.02624571387059663</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02952065524354701</v>
+      </c>
+      <c r="E68">
+        <v>-0.0004017060005906196</v>
+      </c>
+      <c r="F68">
+        <v>-0.02336364479428454</v>
+      </c>
+      <c r="G68">
+        <v>-0.01932583515868398</v>
+      </c>
+      <c r="H68">
+        <v>-0.06099435850851082</v>
+      </c>
+      <c r="I68">
+        <v>-0.02027004989956866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0657872983515734</v>
+        <v>-0.03931757516776084</v>
       </c>
       <c r="C69">
-        <v>-0.1101053297537474</v>
+        <v>0.1155809060908948</v>
       </c>
       <c r="D69">
-        <v>-0.07827186349868455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04351531762510989</v>
+      </c>
+      <c r="E69">
+        <v>0.008313995344511722</v>
+      </c>
+      <c r="F69">
+        <v>0.006187827358881222</v>
+      </c>
+      <c r="G69">
+        <v>0.01428351640936861</v>
+      </c>
+      <c r="H69">
+        <v>0.02324847272744645</v>
+      </c>
+      <c r="I69">
+        <v>-0.07901741960017786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2058116063063258</v>
+        <v>-0.2514228557750735</v>
       </c>
       <c r="C71">
-        <v>0.177145922417278</v>
+        <v>-0.1229156443294016</v>
       </c>
       <c r="D71">
-        <v>-0.03735551896480904</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03171828364586912</v>
+      </c>
+      <c r="E71">
+        <v>-0.01373038924190579</v>
+      </c>
+      <c r="F71">
+        <v>-0.03637155829162458</v>
+      </c>
+      <c r="G71">
+        <v>-0.04990359839984557</v>
+      </c>
+      <c r="H71">
+        <v>-0.03636064529412163</v>
+      </c>
+      <c r="I71">
+        <v>-0.1278187462831665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1037045046208347</v>
+        <v>-0.07326784177556164</v>
       </c>
       <c r="C72">
-        <v>-0.07886633849804202</v>
+        <v>0.1145736323060167</v>
       </c>
       <c r="D72">
-        <v>-0.0838832721786391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0713699455777279</v>
+      </c>
+      <c r="E72">
+        <v>0.08545012423654334</v>
+      </c>
+      <c r="F72">
+        <v>-0.002159541059322245</v>
+      </c>
+      <c r="G72">
+        <v>-0.0190507553076429</v>
+      </c>
+      <c r="H72">
+        <v>0.04256005595658742</v>
+      </c>
+      <c r="I72">
+        <v>-0.02098526533743715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1883109780507309</v>
+        <v>-0.1559919397109525</v>
       </c>
       <c r="C73">
-        <v>-0.05063123786431711</v>
+        <v>0.1169104275902148</v>
       </c>
       <c r="D73">
-        <v>-0.132964973777356</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.04922542943647085</v>
+      </c>
+      <c r="E73">
+        <v>0.4738077957699456</v>
+      </c>
+      <c r="F73">
+        <v>0.2358264151183594</v>
+      </c>
+      <c r="G73">
+        <v>0.390507955879947</v>
+      </c>
+      <c r="H73">
+        <v>0.09103696245271845</v>
+      </c>
+      <c r="I73">
+        <v>-0.0006152975564544867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.09793474219839196</v>
+        <v>-0.06522581660519083</v>
       </c>
       <c r="C74">
-        <v>-0.1053070652499103</v>
+        <v>0.1273969342642049</v>
       </c>
       <c r="D74">
-        <v>0.02298650806127521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03262929109788146</v>
+      </c>
+      <c r="E74">
+        <v>-0.02742058362761871</v>
+      </c>
+      <c r="F74">
+        <v>-0.0655913138266434</v>
+      </c>
+      <c r="G74">
+        <v>0.01071624932166908</v>
+      </c>
+      <c r="H74">
+        <v>-0.03034333885370845</v>
+      </c>
+      <c r="I74">
+        <v>-0.08047667583138862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.241248802305874</v>
+        <v>-0.1705498060604668</v>
       </c>
       <c r="C75">
-        <v>-0.1959690605278739</v>
+        <v>0.2486738470757355</v>
       </c>
       <c r="D75">
-        <v>0.09340758226262856</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1213989696612275</v>
+      </c>
+      <c r="E75">
+        <v>-0.08918726875187935</v>
+      </c>
+      <c r="F75">
+        <v>0.01436914355289375</v>
+      </c>
+      <c r="G75">
+        <v>-0.04443922175548158</v>
+      </c>
+      <c r="H75">
+        <v>-0.04346426054987968</v>
+      </c>
+      <c r="I75">
+        <v>-0.1164060636374873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1328199554568014</v>
+        <v>-0.08902397442224165</v>
       </c>
       <c r="C76">
-        <v>-0.1423985639372169</v>
+        <v>0.1695769790913318</v>
       </c>
       <c r="D76">
-        <v>-0.00938566305323631</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01642946678138193</v>
+      </c>
+      <c r="E76">
+        <v>-0.04137796750018961</v>
+      </c>
+      <c r="F76">
+        <v>-0.02353109286553455</v>
+      </c>
+      <c r="G76">
+        <v>-0.0486790302917504</v>
+      </c>
+      <c r="H76">
+        <v>-0.01496130568654918</v>
+      </c>
+      <c r="I76">
+        <v>-0.08530405234805863</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02858242411912987</v>
+        <v>-0.0364678684669806</v>
       </c>
       <c r="C77">
-        <v>-0.07716935616270248</v>
+        <v>0.08711037856718752</v>
       </c>
       <c r="D77">
-        <v>-0.07820136101503312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2244872567591939</v>
+      </c>
+      <c r="E77">
+        <v>-0.6678148305771069</v>
+      </c>
+      <c r="F77">
+        <v>0.4180737577209179</v>
+      </c>
+      <c r="G77">
+        <v>0.4169120037454456</v>
+      </c>
+      <c r="H77">
+        <v>-0.1337076665148861</v>
+      </c>
+      <c r="I77">
+        <v>-0.1215225981498726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02917207533427219</v>
+        <v>-0.02419714440323928</v>
       </c>
       <c r="C78">
-        <v>-0.06761481273106347</v>
+        <v>0.08099848269052889</v>
       </c>
       <c r="D78">
-        <v>-0.154096017246781</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.143620347613944</v>
+      </c>
+      <c r="E78">
+        <v>0.04355981444803355</v>
+      </c>
+      <c r="F78">
+        <v>-0.03214593647524343</v>
+      </c>
+      <c r="G78">
+        <v>0.003432181912854956</v>
+      </c>
+      <c r="H78">
+        <v>0.02544728594507675</v>
+      </c>
+      <c r="I78">
+        <v>0.05509995231684735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.06258783478451249</v>
+        <v>-0.04365448939744365</v>
       </c>
       <c r="C79">
-        <v>-0.1300447456942969</v>
+        <v>0.1453038653956738</v>
       </c>
       <c r="D79">
-        <v>0.1008547936068232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04730360214390611</v>
+      </c>
+      <c r="E79">
+        <v>-0.1567593906340617</v>
+      </c>
+      <c r="F79">
+        <v>-0.7470435844582665</v>
+      </c>
+      <c r="G79">
+        <v>0.4958048415823824</v>
+      </c>
+      <c r="H79">
+        <v>0.1190293366854751</v>
+      </c>
+      <c r="I79">
+        <v>0.1941443938061306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.01551071380933838</v>
+        <v>-0.009793220646105778</v>
       </c>
       <c r="C80">
-        <v>-0.05295878963852628</v>
+        <v>0.05484668307975317</v>
       </c>
       <c r="D80">
-        <v>-0.03838216659845119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03474359186449003</v>
+      </c>
+      <c r="E80">
+        <v>0.01595489197546723</v>
+      </c>
+      <c r="F80">
+        <v>-0.01057039375453948</v>
+      </c>
+      <c r="G80">
+        <v>-0.05769261455605881</v>
+      </c>
+      <c r="H80">
+        <v>-0.01825874265790688</v>
+      </c>
+      <c r="I80">
+        <v>0.009615428349974227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1203525681704583</v>
+        <v>-0.07591026420641618</v>
       </c>
       <c r="C81">
-        <v>-0.1443150442408258</v>
+        <v>0.1630855675872214</v>
       </c>
       <c r="D81">
-        <v>0.06905898720862891</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08120968219765665</v>
+      </c>
+      <c r="E81">
+        <v>-0.08042158308624771</v>
+      </c>
+      <c r="F81">
+        <v>-0.05500603890471157</v>
+      </c>
+      <c r="G81">
+        <v>-0.07605126705023803</v>
+      </c>
+      <c r="H81">
+        <v>0.00357596567675514</v>
+      </c>
+      <c r="I81">
+        <v>-0.1068984217439074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2310553633129887</v>
+        <v>-0.140973258941359</v>
       </c>
       <c r="C82">
-        <v>-0.2845201448878052</v>
+        <v>0.3021424763189152</v>
       </c>
       <c r="D82">
-        <v>0.2347203903877146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2306611786308453</v>
+      </c>
+      <c r="E82">
+        <v>-0.04865324011020993</v>
+      </c>
+      <c r="F82">
+        <v>0.07772436130128091</v>
+      </c>
+      <c r="G82">
+        <v>-0.08183860375529196</v>
+      </c>
+      <c r="H82">
+        <v>0.005023917424709071</v>
+      </c>
+      <c r="I82">
+        <v>-0.09841190289924555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01524619753729151</v>
+        <v>-0.002626647453962986</v>
       </c>
       <c r="C83">
-        <v>-0.06204855747287887</v>
+        <v>0.05678265595575593</v>
       </c>
       <c r="D83">
-        <v>-0.03906821724493647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04874228306492486</v>
+      </c>
+      <c r="E83">
+        <v>-0.08297885955243231</v>
+      </c>
+      <c r="F83">
+        <v>0.03933649552703289</v>
+      </c>
+      <c r="G83">
+        <v>-0.01882963297316373</v>
+      </c>
+      <c r="H83">
+        <v>0.01757773334066549</v>
+      </c>
+      <c r="I83">
+        <v>0.1599991762710563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.000140419812040815</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01021399167585492</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0294729039906772</v>
+      </c>
+      <c r="E84">
+        <v>-0.003891764936951466</v>
+      </c>
+      <c r="F84">
+        <v>-0.01651219682323265</v>
+      </c>
+      <c r="G84">
+        <v>-0.02682478666057075</v>
+      </c>
+      <c r="H84">
+        <v>-0.02207379524998896</v>
+      </c>
+      <c r="I84">
+        <v>0.0223721361317495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1504038660697848</v>
+        <v>-0.09861362367475635</v>
       </c>
       <c r="C85">
-        <v>-0.1464819429164848</v>
+        <v>0.185820101753516</v>
       </c>
       <c r="D85">
-        <v>0.05676513588849864</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08975498288560868</v>
+      </c>
+      <c r="E85">
+        <v>-0.008564528109756803</v>
+      </c>
+      <c r="F85">
+        <v>-0.08650283365531039</v>
+      </c>
+      <c r="G85">
+        <v>-0.01638516474467641</v>
+      </c>
+      <c r="H85">
+        <v>-0.01975451933828737</v>
+      </c>
+      <c r="I85">
+        <v>-0.09293684253741034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0129928142716824</v>
+        <v>-0.01205071046465304</v>
       </c>
       <c r="C86">
-        <v>-0.03220048106951583</v>
+        <v>0.03320659273688514</v>
       </c>
       <c r="D86">
-        <v>-0.1020226528470872</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1094039007756969</v>
+      </c>
+      <c r="E86">
+        <v>-0.0428099207867156</v>
+      </c>
+      <c r="F86">
+        <v>0.01818343762489188</v>
+      </c>
+      <c r="G86">
+        <v>-0.01975027808402212</v>
+      </c>
+      <c r="H86">
+        <v>-0.0005195167600670456</v>
+      </c>
+      <c r="I86">
+        <v>-0.0715253445891792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.0237910066594275</v>
+        <v>-0.02354156312706928</v>
       </c>
       <c r="C87">
-        <v>-0.02900478779229313</v>
+        <v>0.04663098705439745</v>
       </c>
       <c r="D87">
-        <v>-0.1349666593406802</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1492318103816683</v>
+      </c>
+      <c r="E87">
+        <v>-0.01311666737041983</v>
+      </c>
+      <c r="F87">
+        <v>-0.03026306320530344</v>
+      </c>
+      <c r="G87">
+        <v>-0.05268745968983433</v>
+      </c>
+      <c r="H87">
+        <v>0.001735118481784643</v>
+      </c>
+      <c r="I87">
+        <v>0.08515902338804716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05932032568983978</v>
+        <v>-0.04175976391733841</v>
       </c>
       <c r="C88">
-        <v>-0.05519195293881744</v>
+        <v>0.06951068321205169</v>
       </c>
       <c r="D88">
-        <v>-0.05023221790412838</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01888670292207912</v>
+      </c>
+      <c r="E88">
+        <v>0.01386108159994474</v>
+      </c>
+      <c r="F88">
+        <v>-0.0307176352382406</v>
+      </c>
+      <c r="G88">
+        <v>-0.01410373243422418</v>
+      </c>
+      <c r="H88">
+        <v>0.02546881526243439</v>
+      </c>
+      <c r="I88">
+        <v>-0.06467573858134405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3194524456828464</v>
+        <v>-0.384994214405438</v>
       </c>
       <c r="C89">
-        <v>0.3350270075339644</v>
+        <v>-0.2303566119497915</v>
       </c>
       <c r="D89">
-        <v>-0.01720632129549517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02140674675630258</v>
+      </c>
+      <c r="E89">
+        <v>-0.04340290461990288</v>
+      </c>
+      <c r="F89">
+        <v>-0.02903014386536999</v>
+      </c>
+      <c r="G89">
+        <v>-0.08465914724683087</v>
+      </c>
+      <c r="H89">
+        <v>0.127888377580342</v>
+      </c>
+      <c r="I89">
+        <v>0.3893521838019759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2587916491971637</v>
+        <v>-0.3030103837470054</v>
       </c>
       <c r="C90">
-        <v>0.2393012530370881</v>
+        <v>-0.1543527343825876</v>
       </c>
       <c r="D90">
-        <v>-0.04032689507876951</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.04267402347077334</v>
+      </c>
+      <c r="E90">
+        <v>-0.009284572352782157</v>
+      </c>
+      <c r="F90">
+        <v>0.01334723595278512</v>
+      </c>
+      <c r="G90">
+        <v>-0.04323394927795565</v>
+      </c>
+      <c r="H90">
+        <v>-0.0523373040720404</v>
+      </c>
+      <c r="I90">
+        <v>-0.04801035102398845</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1529324050099929</v>
+        <v>-0.09949045135764921</v>
       </c>
       <c r="C91">
-        <v>-0.1916729382626587</v>
+        <v>0.2086249122122737</v>
       </c>
       <c r="D91">
-        <v>0.08499410341610973</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09549583620716866</v>
+      </c>
+      <c r="E91">
+        <v>-0.08588455027480887</v>
+      </c>
+      <c r="F91">
+        <v>-0.08499736441710182</v>
+      </c>
+      <c r="G91">
+        <v>-0.01180195625925655</v>
+      </c>
+      <c r="H91">
+        <v>-0.01023293830479065</v>
+      </c>
+      <c r="I91">
+        <v>-0.1089916512233212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2307279033775405</v>
+        <v>-0.3030803786413743</v>
       </c>
       <c r="C92">
-        <v>0.236697631396091</v>
+        <v>-0.1784159944880837</v>
       </c>
       <c r="D92">
-        <v>-0.02683693880183269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03581582399743977</v>
+      </c>
+      <c r="E92">
+        <v>-0.1044277876089235</v>
+      </c>
+      <c r="F92">
+        <v>-0.04805681862446712</v>
+      </c>
+      <c r="G92">
+        <v>-0.09773639901501752</v>
+      </c>
+      <c r="H92">
+        <v>0.008313426261387397</v>
+      </c>
+      <c r="I92">
+        <v>-0.08758823755900658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2825443454314153</v>
+        <v>-0.3230770065886032</v>
       </c>
       <c r="C93">
-        <v>0.258869208725623</v>
+        <v>-0.1679826196835157</v>
       </c>
       <c r="D93">
-        <v>-0.02813978887111355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002936255609797236</v>
+      </c>
+      <c r="E93">
+        <v>0.03383305599984226</v>
+      </c>
+      <c r="F93">
+        <v>-0.02396849836690945</v>
+      </c>
+      <c r="G93">
+        <v>0.03097260706247791</v>
+      </c>
+      <c r="H93">
+        <v>-0.004409549672190839</v>
+      </c>
+      <c r="I93">
+        <v>-0.1321852104355661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3146514329385707</v>
+        <v>-0.2155771516218113</v>
       </c>
       <c r="C94">
-        <v>-0.2680814284397939</v>
+        <v>0.3403756751915682</v>
       </c>
       <c r="D94">
-        <v>0.3586192171314105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3640819548024729</v>
+      </c>
+      <c r="E94">
+        <v>-0.04579150931218814</v>
+      </c>
+      <c r="F94">
+        <v>0.1137493230156198</v>
+      </c>
+      <c r="G94">
+        <v>-0.2481472679559183</v>
+      </c>
+      <c r="H94">
+        <v>-0.1638969725833113</v>
+      </c>
+      <c r="I94">
+        <v>0.4423586099438371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.05335316548569381</v>
+        <v>-0.04467721618135746</v>
       </c>
       <c r="C95">
-        <v>-0.04793060268346652</v>
+        <v>0.06963138994526404</v>
       </c>
       <c r="D95">
-        <v>-0.1001616003504727</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.102078177264177</v>
+      </c>
+      <c r="E95">
+        <v>-0.1972991344028252</v>
+      </c>
+      <c r="F95">
+        <v>0.225267627829912</v>
+      </c>
+      <c r="G95">
+        <v>0.01574939225986954</v>
+      </c>
+      <c r="H95">
+        <v>0.5256635044493377</v>
+      </c>
+      <c r="I95">
+        <v>0.4463944233904673</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-2.844135294002571e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001193538266472711</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0002264454461102414</v>
+      </c>
+      <c r="E97">
+        <v>7.176254979944858e-05</v>
+      </c>
+      <c r="F97">
+        <v>0.00128046653150473</v>
+      </c>
+      <c r="G97">
+        <v>0.0008440432935265089</v>
+      </c>
+      <c r="H97">
+        <v>0.0009000802459999189</v>
+      </c>
+      <c r="I97">
+        <v>-0.0007082506956883558</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1575674309074007</v>
+        <v>-0.1332363473980796</v>
       </c>
       <c r="C98">
-        <v>-0.06954760160060272</v>
+        <v>0.1194887893279697</v>
       </c>
       <c r="D98">
-        <v>-0.08697457067883144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04829014514019172</v>
+      </c>
+      <c r="E98">
+        <v>0.2954238975866033</v>
+      </c>
+      <c r="F98">
+        <v>0.1375010100155275</v>
+      </c>
+      <c r="G98">
+        <v>0.2226432756481882</v>
+      </c>
+      <c r="H98">
+        <v>0.0206273151675763</v>
+      </c>
+      <c r="I98">
+        <v>-0.02218714689340672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0003762421071288058</v>
+        <v>-0.0007128013208343286</v>
       </c>
       <c r="C101">
-        <v>-0.02433343401438113</v>
+        <v>0.02931327923901042</v>
       </c>
       <c r="D101">
-        <v>-0.1064757218022372</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1053426245880254</v>
+      </c>
+      <c r="E101">
+        <v>0.03069335081579857</v>
+      </c>
+      <c r="F101">
+        <v>-0.02889707577416066</v>
+      </c>
+      <c r="G101">
+        <v>-0.06858706570303064</v>
+      </c>
+      <c r="H101">
+        <v>0.07134662709104758</v>
+      </c>
+      <c r="I101">
+        <v>-0.01272414524152118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1073132323954463</v>
+        <v>-0.06115702231592408</v>
       </c>
       <c r="C102">
-        <v>-0.1497413446295521</v>
+        <v>0.1500418333181594</v>
       </c>
       <c r="D102">
-        <v>0.07582149012390477</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08878670078309073</v>
+      </c>
+      <c r="E102">
+        <v>-0.03572183019371832</v>
+      </c>
+      <c r="F102">
+        <v>0.05355943359703233</v>
+      </c>
+      <c r="G102">
+        <v>-0.01831736299154375</v>
+      </c>
+      <c r="H102">
+        <v>0.04584513442444777</v>
+      </c>
+      <c r="I102">
+        <v>-0.05178685527027147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
